--- a/biology/Médecine/1826_en_santé_et_médecine/1826_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1826_en_santé_et_médecine/1826_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1826_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1826_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1826 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1826_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1826_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pierre Bretonneau reconnaît le caractère des angines à fausses membranes, qu'il décrit sous le nom de « diphtérite »[1].
-À la mort de Royer-Collard (1768-1825), Esquirol (1772-1840) prend le poste de médecin-chef de la Maison Royale de Charenton, aujourd'hui l'hôpital Esquirol[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pierre Bretonneau reconnaît le caractère des angines à fausses membranes, qu'il décrit sous le nom de « diphtérite ».
+À la mort de Royer-Collard (1768-1825), Esquirol (1772-1840) prend le poste de médecin-chef de la Maison Royale de Charenton, aujourd'hui l'hôpital Esquirol.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1826_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1826_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>21 août : Karl Gegenbaur (mort en 1903), anatomiste allemand.</t>
         </is>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1826_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1826_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,9 +588,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>20 mars : Jean-Baptiste Dumangin (né en 1745), médecin français qui a pris part à l'autopsie de Louis XVII[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>20 mars : Jean-Baptiste Dumangin (né en 1745), médecin français qui a pris part à l'autopsie de Louis XVII.
 30 juin : Clément Joseph Tissot  (né en 1747), médecin militaire.
 13 août : René Laënnec (né en 1781), médecin français, inventeur de l'auscultation immédiate.
 20 août : Antonio Miglietta (né en 1767), médecin italien.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1826_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1826_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Pierre Bretonneau, Des inflammations spéciales du tissu muqueux, et en particulier de la diphtérite, ou inflammation pelliculaire, connue sous le nom de croup, d'angine maligne, d'angine gangréneuse, etc., Paris, Crevot, 1826, 556 p. (lire en ligne).
